--- a/Base/Teams/Titans/2021 Team Data.xlsx
+++ b/Base/Teams/Titans/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14</t>
-  </si>
-  <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7</t>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12</t>
+  </si>
+  <si>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66</t>
-  </si>
-  <si>
-    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37</t>
-  </si>
-  <si>
-    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16</t>
-  </si>
-  <si>
-    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48</t>
-  </si>
-  <si>
-    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0</t>
+    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66 66</t>
+  </si>
+  <si>
+    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16</t>
+  </si>
+  <si>
+    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25</t>
+  </si>
+  <si>
+    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46</t>
+  </si>
+  <si>
+    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,40 +665,40 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G2">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="M2">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="N2">
         <v>21</v>
@@ -710,7 +710,7 @@
         <v>13</v>
       </c>
       <c r="Q2">
-        <v>374</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D3">
         <v>4</v>
       </c>
       <c r="E3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>124</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,7 +943,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -952,16 +952,16 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>20</v>
@@ -970,22 +970,22 @@
         <v>25</v>
       </c>
       <c r="L2">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="M2">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="N2">
         <v>14</v>
       </c>
       <c r="O2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q2">
-        <v>366</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J3">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>147</v>
       </c>
       <c r="N3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N2">
         <v>26</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,7 +1348,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>7</v>
@@ -1368,7 +1368,7 @@
         <v>6</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Titans/2021 Team Data.xlsx
+++ b/Base/Teams/Titans/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12</t>
-  </si>
-  <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2</t>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8</t>
+  </si>
+  <si>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66 66</t>
-  </si>
-  <si>
-    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16</t>
-  </si>
-  <si>
-    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25</t>
-  </si>
-  <si>
-    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46</t>
-  </si>
-  <si>
-    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10</t>
+    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66 66 57 61</t>
+  </si>
+  <si>
+    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16 20 18</t>
+  </si>
+  <si>
+    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25 21 19</t>
+  </si>
+  <si>
+    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46 50 39 54</t>
+  </si>
+  <si>
+    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0 17 11 11</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10 0 55 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,31 +665,31 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>73</v>
+      </c>
+      <c r="G2">
+        <v>52</v>
+      </c>
+      <c r="H2">
         <v>4</v>
-      </c>
-      <c r="F2">
-        <v>67</v>
-      </c>
-      <c r="G2">
-        <v>46</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,13 +701,13 @@
         <v>152</v>
       </c>
       <c r="N2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="O2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q2">
         <v>444</v>
@@ -721,37 +721,37 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J3">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>193</v>
+        <v>225</v>
       </c>
       <c r="M3">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="N3">
         <v>18</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>419</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -940,13 +940,13 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -955,7 +955,7 @@
         <v>43</v>
       </c>
       <c r="G2">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,7 +976,7 @@
         <v>153</v>
       </c>
       <c r="N2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="O2">
         <v>17</v>
@@ -996,37 +996,37 @@
         <v>15</v>
       </c>
       <c r="C3">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I3">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J3">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="M3">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="N3">
         <v>16</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>379</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1239,10 +1239,10 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L2">
         <v>80</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1362,16 +1362,16 @@
         <v>26</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
         <v>6</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1403,13 +1403,13 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>
@@ -1437,7 +1437,7 @@
         <v>58</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Base/Teams/Titans/2021 Team Data.xlsx
+++ b/Base/Teams/Titans/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8</t>
-  </si>
-  <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4</t>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4</t>
+  </si>
+  <si>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -167,16 +167,16 @@
     <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16 20 18</t>
   </si>
   <si>
-    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25 21 19</t>
-  </si>
-  <si>
-    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46 50 39 54</t>
-  </si>
-  <si>
-    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0 17 11 11</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10 0 55 0 0 0</t>
+    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25 21 19 37 20</t>
+  </si>
+  <si>
+    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46 50 39 54 53 39 46 33 59</t>
+  </si>
+  <si>
+    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0 17 11 11 0 0 12 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10 0 55 0 0 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,40 +665,40 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>76</v>
+      </c>
+      <c r="G2">
+        <v>57</v>
+      </c>
+      <c r="H2">
         <v>5</v>
-      </c>
-      <c r="F2">
-        <v>73</v>
-      </c>
-      <c r="G2">
-        <v>52</v>
-      </c>
-      <c r="H2">
-        <v>4</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="M2">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="N2">
         <v>25</v>
@@ -710,7 +710,7 @@
         <v>14</v>
       </c>
       <c r="Q2">
-        <v>444</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G3">
         <v>21</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>147</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -943,19 +943,19 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -964,28 +964,28 @@
         <v>10</v>
       </c>
       <c r="J2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="M2">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="N2">
         <v>17</v>
       </c>
       <c r="O2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q2">
-        <v>422</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -993,31 +993,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F3">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I3">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>164</v>
       </c>
       <c r="N3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N2">
         <v>26</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Titans/2021 Team Data.xlsx
+++ b/Base/Teams/Titans/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4</t>
-  </si>
-  <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2</t>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 0 4 5 -3 3 14 0 4 4 5 4 -1 6 2 5 21 2 7 5 3 2 4 3 1 0 12 0 9 35 -1 2 4 0 -3 0 0 -2 1 39</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 25 2 4 1 5 5 16 3 7 52 6 3 15</t>
+  </si>
+  <si>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 16 0 1 0 1 14 11 1 0 6 1 8 1 6 5 3</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 20 0 8 14 14 11 15 21 0 10 6 6 45 1 2 9 8</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66 66 57 61</t>
-  </si>
-  <si>
-    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16 20 18</t>
-  </si>
-  <si>
-    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25 21 19 37 20</t>
-  </si>
-  <si>
-    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46 50 39 54 53 39 46 33 59</t>
-  </si>
-  <si>
-    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0 17 11 11 0 0 12 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10 0 55 0 0 0 0 0</t>
+    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66 66 57 61 64 57</t>
+  </si>
+  <si>
+    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16 20 18 16 18</t>
+  </si>
+  <si>
+    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25 21 19 37 20 24</t>
+  </si>
+  <si>
+    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46 50 39 54 53 39 46 33 59 52 46 37</t>
+  </si>
+  <si>
+    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0 17 11 11 0 0 12 0 0 15 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10 0 55 0 0 0 0 0 9 8 11 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,49 +668,49 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>225</v>
+        <v>243</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>85</v>
+      </c>
+      <c r="G2">
+        <v>58</v>
+      </c>
+      <c r="H2">
         <v>8</v>
-      </c>
-      <c r="F2">
-        <v>76</v>
-      </c>
-      <c r="G2">
-        <v>57</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
       </c>
       <c r="I2">
         <v>4</v>
       </c>
       <c r="J2">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="M2">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="N2">
         <v>25</v>
       </c>
       <c r="O2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q2">
-        <v>506</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>33</v>
       </c>
       <c r="I3">
+        <v>63</v>
+      </c>
+      <c r="J3">
         <v>60</v>
-      </c>
-      <c r="J3">
-        <v>56</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>147</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,10 +940,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D2">
         <v>6</v>
@@ -952,40 +952,40 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H2">
         <v>3</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="M2">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="N2">
         <v>17</v>
       </c>
       <c r="O2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q2">
-        <v>482</v>
+        <v>541</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G3">
         <v>27</v>
       </c>
       <c r="H3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>164</v>
       </c>
       <c r="N3">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="G2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1239,16 +1239,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2">
         <v>26</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1348,13 +1348,13 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1371,7 +1371,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Titans/2021 Team Data.xlsx
+++ b/Base/Teams/Titans/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 0 4 5 -3 3 14 0 4 4 5 4 -1 6 2 5 21 2 7 5 3 2 4 3 1 0 12 0 9 35 -1 2 4 0 -3 0 0 -2 1 39</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 25 2 4 1 5 5 16 3 7 52 6 3 15</t>
-  </si>
-  <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 16 0 1 0 1 14 11 1 0 6 1 8 1 6 5 3</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 20 0 8 14 14 11 15 21 0 10 6 6 45 1 2 9 8</t>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 0 4 5 -3 3 14 0 4 4 5 4 -1 6 2 5 21 2 7 5 3 2 4 3 1 0 12 0 9 35 -1 2 4 0 -3 0 0 -2 1 39 -3 5 3 5 2 4 1 3 16 1 3 16 13 -1 2 8 -1 5 8 8 0 2 3 3 1 8 -2 10 2 0 11</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 25 2 4 1 5 5 16 3 7 52 6 3 15 5 2 29 13 4 9 19 17 9 15 0 5 14 24 14 1 14 4 10 36 24 3 16</t>
+  </si>
+  <si>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 16 0 1 0 1 14 11 1 0 6 1 8 1 6 5 3 6 1 0 3 1 -2 -1 -1 1 7 6 5 11 2 6 3 -3 15 3</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 20 0 8 14 14 11 15 21 0 10 6 6 45 1 2 9 8 7 8 14 6 -3 25 4 7 9 -5 20 28 24 8 13 37 30 7 5 5 21 5 26</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66 66 57 61 64 57</t>
-  </si>
-  <si>
-    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16 20 18 16 18</t>
-  </si>
-  <si>
-    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25 21 19 37 20 24</t>
-  </si>
-  <si>
-    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46 50 39 54 53 39 46 33 59 52 46 37</t>
-  </si>
-  <si>
-    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0 17 11 11 0 0 12 0 0 15 0 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10 0 55 0 0 0 0 0 9 8 11 0</t>
+    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66 66 57 61 64 57 63 61 65</t>
+  </si>
+  <si>
+    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16 20 18 16 18 16 24 18</t>
+  </si>
+  <si>
+    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25 21 19 37 20 24 25 21 12</t>
+  </si>
+  <si>
+    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46 50 39 54 53 39 46 33 59 52 46 37 53 46 49 49</t>
+  </si>
+  <si>
+    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0 17 11 11 0 0 12 0 0 15 0 0 13 3 8 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10 0 55 0 0 0 0 0 9 8 11 0 1 0 24 8 10</t>
   </si>
   <si>
     <t>INT</t>
@@ -665,22 +665,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="D2">
         <v>12</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2">
         <v>8</v>
@@ -689,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -701,7 +701,7 @@
         <v>187</v>
       </c>
       <c r="N2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2">
         <v>24</v>
@@ -721,37 +721,37 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G3">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="J3">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>225</v>
+        <v>257</v>
       </c>
       <c r="M3">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="N3">
         <v>23</v>
@@ -763,7 +763,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>501</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -943,28 +943,28 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>52</v>
+      </c>
+      <c r="G2">
+        <v>60</v>
+      </c>
+      <c r="H2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>50</v>
-      </c>
-      <c r="G2">
-        <v>55</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
       <c r="I2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
@@ -976,13 +976,13 @@
         <v>196</v>
       </c>
       <c r="N2">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q2">
         <v>541</v>
@@ -993,40 +993,40 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
       </c>
       <c r="L3">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="M3">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="N3">
         <v>22</v>
@@ -1038,7 +1038,7 @@
         <v>17</v>
       </c>
       <c r="Q3">
-        <v>431</v>
+        <v>487</v>
       </c>
     </row>
   </sheetData>
@@ -1215,22 +1215,22 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="G2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>117</v>
       </c>
       <c r="L2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2">
         <v>64</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1368,10 +1368,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1417,7 +1417,7 @@
         <v>57</v>
       </c>
       <c r="B3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>57</v>

--- a/Base/Teams/Titans/2021 Team Data.xlsx
+++ b/Base/Teams/Titans/2021 Team Data.xlsx
@@ -35,16 +35,16 @@
     <t>P</t>
   </si>
   <si>
-    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 0 4 5 -3 3 14 0 4 4 5 4 -1 6 2 5 21 2 7 5 3 2 4 3 1 0 12 0 9 35 -1 2 4 0 -3 0 0 -2 1 39 -3 5 3 5 2 4 1 3 16 1 3 16 13 -1 2 8 -1 5 8 8 0 2 3 3 1 8 -2 10 2 0 11</t>
-  </si>
-  <si>
-    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 25 2 4 1 5 5 16 3 7 52 6 3 15 5 2 29 13 4 9 19 17 9 15 0 5 14 24 14 1 14 4 10 36 24 3 16</t>
-  </si>
-  <si>
-    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 16 0 1 0 1 14 11 1 0 6 1 8 1 6 5 3 6 1 0 3 1 -2 -1 -1 1 7 6 5 11 2 6 3 -3 15 3</t>
-  </si>
-  <si>
-    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 20 0 8 14 14 11 15 21 0 10 6 6 45 1 2 9 8 7 8 14 6 -3 25 4 7 9 -5 20 28 24 8 13 37 30 7 5 5 21 5 26</t>
+    <t>-3 -1 2 7 -1 2 2 0 0 1 16 1 19 4 8 8 -1 4 7 8 1 2 1 -2 2 7 0 1 4 7 3 2 4 8 4 1 11 3 4 -2 9 2 6 7 0 60 3 6 2 19 0 3 8 4 4 1 0 12 4 1 4 1 3 4 17 0 19 1 -1 4 2 1 3 4 8 2 8 2 9 5 1 2 3 2 28 10 9 2 2 12 1 5 1 -1 13 0 7 4 0 2 2 2 4 16 1 7 2 0 4 3 5 2 3 1 2 11 2 3 18 9 11 22 1 2 2 7 5 5 1 0 -4 2 4 4 4 6 -1 0 1 5 9 5 11 1 6 9 4 2 3 3 8 7 13 9 1 4 -2 0 4 15 0 9 5 4 11 10 -1 2 4 3 76 2 -3 7 4 6 3 19 0 4 3 1 2 3 0 -1 13 3 9 2 3 4 0 8 5 0 3 4 -1 2 4 0 11 1 -1 2 2 4 6 2 1 2 8 5 4 -4 9 3 2 -4 5 3 1 3 4 1 13 2 5 9 2 1 0 6 1 1 2 2 -1 4 2 4 5 3 3 6 -1 -3 2 3 1 3 -3 8 -7 0 1 4 2 14 2 11 6 3 4 2 1 6 0 3 2 1 1 2 4 2 5 4 -1 6 5 7 1 2 1 5 3 2 2 1 1 0 2 3 4 5 6 -5 0 1 11 7 0 16 4 12 5 4 9 -1 8 -1 9 -1 1 2 16 2 2 1 -3 -1 4 5 2 11 2 5 2 1 4 2 17 3 13 3 68 6 30 5 6 3 7 14 4 2 8 4 3 1 2 1 5 12 9 2 3 1 2 6 3 17 0 5 4 4 6 8 2 5 3 4 3 2 -5 3 1 1 -1 2 4 5 6 1 1 12 0 2 -1 3 6 2 1 3 8 9 2 1 2 3 6 0 3 9 1 2 0 9 12 1 6 3 10 7 2 4 4 15 4 5 2 11 0 20 6 7 3 1 4 3 7 0 0 8 9 -1 0 0 3 1 0 5 10 3 2 4 3 -1 4 5 23 5 1 -1 0 4 5 -3 3 14 0 4 4 5 4 -1 6 2 5 21 2 7 5 3 2 4 3 1 0 12 0 9 35 -1 2 4 0 -3 0 0 -2 1 39 -3 5 3 5 2 4 1 3 16 1 3 16 13 -1 2 8 -1 5 8 8 0 2 3 3 1 8 -2 10 2 0 11 2 -1 8 3 -1 2 4 3 4 6 3 8 9 3 9 45 5 5 1 -1 9 10 0 3 0</t>
+  </si>
+  <si>
+    <t>3 4 8 12 11 39 10 9 9 4 4 19 13 9 10 5 10 8 10 8 7 10 6 14 13 5 17 51 15 15 19 6 15 15 22 12 12 5 15 16 10 14 4 9 12 4 5 6 6 6 9 3 25 7 18 26 14 13 13 -2 10 11 13 7 3 27 5 11 14 16 4 7 10 0 12 7 10 9 1 23 9 14 18 9 15 12 11 6 6 2 20 -6 5 9 12 10 12 25 10 22 22 8 14 26 20 6 7 1 14 11 5 48 7 8 8 8 4 13 20 6 6 14 22 5 8 9 10 18 3 5 3 24 8 13 22 10 2 20 6 12 9 11 6 5 8 24 8 7 3 8 8 6 14 7 57 13 10 11 7 5 10 11 14 9 10 10 13 11 13 15 5 -3 7 2 10 14 1 8 3 5 9 9 4 7 11 7 13 16 3 2 50 9 16 17 10 1 16 16 9 10 -1 2 5 7 2 39 0 11 10 10 11 15 1 8 7 12 7 10 8 12 5 11 -1 16 9 5 7 18 -2 4 7 46 11 5 9 9 4 4 8 14 7 8 10 2 14 8 1 2 3 24 7 14 9 6 11 15 1 16 9 12 5 4 8 11 4 10 24 9 5 13 7 12 7 5 11 12 1 4 8 5 18 7 9 13 11 5 -4 -3 3 5 12 5 9 8 -8 14 3 7 -3 11 4 0 12 0 24 18 -1 13 2 42 12 18 18 13 6 4 25 2 4 1 5 5 16 3 7 52 6 3 15 5 2 29 13 4 9 19 17 9 15 0 5 14 24 14 1 14 4 10 36 24 3 16 11 13 3 41 3 13 8 40 5 33 20 6 3 16 5</t>
+  </si>
+  <si>
+    <t>10 0 4 3 10 7 11 8 4 8 0 0 6 2 4 3 7 16 4 2 6 1 5 3 2 1 2 6 8 2 1 1 1 2 7 5 1 0 2 4 4 2 25 1 8 1 -3 -1 5 2 12 2 23 -1 2 2 6 9 -7 5 6 6 1 5 9 5 2 2 1 4 1 2 -2 9 6 2 5 -1 5 -2 -2 2 2 6 13 0 2 8 5 2 -3 0 5 58 7 4 1 3 1 6 -1 9 0 5 10 12 2 9 2 10 8 9 8 5 2 1 4 3 4 8 6 1 3 14 3 7 3 -3 7 5 2 1 7 5 2 3 4 0 4 5 0 4 5 5 2 2 11 -1 13 18 6 9 9 6 2 7 3 12 11 0 32 2 6 5 4 2 3 1 6 5 4 1 4 4 5 3 4 1 14 4 12 2 5 2 11 4 6 0 4 3 0 8 0 1 2 5 10 3 1 6 8 0 2 2 6 4 4 6 13 3 0 5 3 2 5 2 7 4 4 2 1 -3 2 3 2 3 7 -3 4 5 8 1 3 7 1 1 -1 2 0 5 -2 3 1 9 0 1 -1 1 0 -1 0 3 1 9 0 2 2 2 2 2 1 6 5 7 4 2 -1 4 6 10 19 -1 7 14 -4 3 5 2 2 -1 0 1 2 1 10 3 0 7 2 7 0 0 1 2 3 -3 6 -5 4 8 3 1 9 2 0 1 7 5 3 1 0 7 3 4 0 5 4 12 4 16 0 1 0 1 14 11 1 0 6 1 8 1 6 5 3 6 1 0 3 1 -2 -1 -1 1 7 6 5 11 2 6 3 -3 15 3 1 1 2 5 -3 0 1 2 6 10 7 16 1 13 -1 4 2 -2</t>
+  </si>
+  <si>
+    <t>38 1 21 8 5 3 10 3 17 18 4 22 3 12 36 3 0 10 26 11 9 51 4 9 4 5 16 63 11 8 12 8 1 14 10 11 1 7 68 3 7 3 27 10 8 8 7 12 4 18 4 3 11 4 5 27 36 18 3 4 9 3 9 -4 13 30 8 6 3 6 15 6 54 5 29 3 53 4 0 9 29 11 8 5 18 5 -2 25 7 22 13 7 13 7 18 58 9 4 8 4 5 12 19 7 8 9 12 12 6 4 3 11 6 7 3 3 21 19 2 14 5 17 12 29 1 5 9 11 18 9 15 3 4 1 6 6 31 12 7 20 7 8 6 6 5 10 9 23 8 11 24 12 14 6 4 9 10 4 2 37 5 8 0 7 10 7 7 7 8 9 7 12 5 6 1 9 6 5 -2 11 3 9 38 8 8 14 12 4 0 7 1 10 6 18 20 26 15 6 17 6 3 4 9 22 13 7 2 13 3 16 5 9 6 9 3 10 8 6 7 6 46 11 3 12 21 21 8 10 34 26 22 5 17 15 8 10 9 8 12 3 13 10 5 6 2 8 7 6 11 4 22 20 16 13 12 38 5 19 5 3 21 10 7 20 9 11 5 41 4 7 7 8 14 3 7 5 7 3 12 3 31 7 14 6 5 5 9 9 31 41 6 6 3 2 16 4 6 3 -6 11 14 7 19 5 5 17 12 7 5 8 4 4 10 5 17 23 3 26 16 11 6 -2 6 8 4 11 17 19 8 12 15 6 12 56 2 20 0 8 14 14 11 15 21 0 10 6 6 45 1 2 9 8 7 8 14 6 -3 25 4 7 9 -5 20 28 24 8 13 37 30 7 5 5 21 5 26 21 8 4 57 7 19 7 7 6 15 4 22 1 5 10 11 32 7 12 11 4 7 21 8 13 7 3 19</t>
   </si>
   <si>
     <t>1N11+</t>
@@ -161,22 +161,22 @@
     <t>RM</t>
   </si>
   <si>
-    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66 66 57 61 64 57 63 61 65</t>
-  </si>
-  <si>
-    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16 20 18 16 18 16 24 18</t>
-  </si>
-  <si>
-    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25 21 19 37 20 24 25 21 12</t>
-  </si>
-  <si>
-    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46 50 39 54 53 39 46 33 59 52 46 37 53 46 49 49</t>
-  </si>
-  <si>
-    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0 17 11 11 0 0 12 0 0 15 0 0 13 3 8 0</t>
-  </si>
-  <si>
-    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10 0 55 0 0 0 0 0 9 8 11 0 1 0 24 8 10</t>
+    <t>61 61 55 62 52 68 66 63 63 59 57 65 68 67 65 65 65 66 59 64 61 64 60 69 67 50 57 65 64 66 66 57 61 64 57 63 61 65 61 57 64</t>
+  </si>
+  <si>
+    <t>25 7 18 16 17 24 26 16 15 24 16 24 21 30 18 18 27 31 15 19 21 13 27 23 26 17 17 21 26 37 16 20 18 16 18 16 24 18 31 32 19</t>
+  </si>
+  <si>
+    <t>14 19 14 19 13 19 16 15 16 12 17 17 20 17 21 31 17 17 25 25 27 20 7 14 26 17 22 20 22 30 16 25 21 19 37 20 24 25 21 12 26</t>
+  </si>
+  <si>
+    <t>47 59 45 41 53 42 12 63 30 42 41 39 45 44 42 63 44 45 49 50 52 37 49 41 57 35 42 42 36 41 42 46 40 27 53 47 48 35 37 35 39 46 50 39 54 53 39 46 33 59 52 46 37 53 46 49 49 50 27 41 48</t>
+  </si>
+  <si>
+    <t>11 13 0 0 0 0 0 14 0 18 0 0 0 0 0 6 14 0 0 11 16 0 0 0 0 0 0 7 0 4 0 0 0 0 10 15 8 0 0 0 0 0 17 11 11 0 0 12 0 0 15 0 0 13 3 8 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0 10 13 9 12 18 0 14 16 22 0 0 0 6 0 0 2 0 0 0 0 2 19 0 0 11 0 0 0 0 9 0 0 0 16 0 4 0 0 0 2 0 0 1 10 0 55 0 0 0 0 0 9 8 11 0 1 0 24 8 10 0 5 0 0 0</t>
   </si>
   <si>
     <t>INT</t>
@@ -668,7 +668,7 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="D2">
         <v>12</v>
@@ -677,40 +677,40 @@
         <v>15</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H2">
         <v>8</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="M2">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="N2">
         <v>26</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2">
         <v>15</v>
       </c>
       <c r="Q2">
-        <v>570</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -721,28 +721,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F3">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J3">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -754,7 +754,7 @@
         <v>170</v>
       </c>
       <c r="N3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -940,22 +940,22 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="D2">
         <v>7</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -964,16 +964,16 @@
         <v>13</v>
       </c>
       <c r="J2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>25</v>
       </c>
       <c r="L2">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M2">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="N2">
         <v>19</v>
@@ -985,7 +985,7 @@
         <v>13</v>
       </c>
       <c r="Q2">
-        <v>541</v>
+        <v>607</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -996,28 +996,28 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D3">
         <v>9</v>
       </c>
       <c r="E3">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J3">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
         <v>26</v>
@@ -1029,7 +1029,7 @@
         <v>187</v>
       </c>
       <c r="N3">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="O3" t="s">
         <v>17</v>
@@ -1215,34 +1215,34 @@
         <v>41</v>
       </c>
       <c r="B2">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>41</v>
       </c>
       <c r="D2">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I2">
         <v>2</v>
       </c>
       <c r="J2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L2">
         <v>83</v>
@@ -1268,7 +1268,7 @@
         <v>42</v>
       </c>
       <c r="B3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>43</v>
@@ -1345,10 +1345,10 @@
         <v>25</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>8</v>
@@ -1368,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -1403,7 +1403,7 @@
         <v>56</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
